--- a/assets/data_sampling_statistics.xlsx
+++ b/assets/data_sampling_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ostatemailokstate-my.sharepoint.com/personal/skedas_okstate_edu/Documents/Documents/GitHub/project-deliverable-2-bazinga/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{3DC29482-325E-4C48-9925-717464831AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="14_{3DC29482-325E-4C48-9925-717464831AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3CB383C-322E-40FB-8527-9FA4C7C0B300}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{93712E59-8619-4976-908E-DCEB4544B0DD}"/>
+    <workbookView xWindow="3520" yWindow="3520" windowWidth="28800" windowHeight="15370" xr2:uid="{93712E59-8619-4976-908E-DCEB4544B0DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -146,20 +154,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -476,410 +548,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3BF3E4-E5A8-4155-98EE-140B7650DC7B}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="9.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="2" spans="2:15" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>15.94</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F4" s="3">
         <v>742.2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G4" s="3">
         <v>141.19999999999999</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H4" s="3">
         <v>13.05</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I4" s="3">
         <v>5.5380000000000003</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J4" s="3">
         <v>0.70820000000000005</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K4" s="3">
         <v>11</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L4" s="3">
         <v>2.9009999999999998</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M4" s="3">
         <v>1.65</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N4" s="3">
         <v>10.08</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O4" s="3">
         <v>12745</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G5" s="3">
         <v>122.5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H5" s="3">
         <v>11.053000000000001</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K5" s="3">
         <v>9</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M5" s="3">
         <v>1</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N5" s="3">
         <v>9</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O5" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <v>25.65</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F6" s="3">
         <v>1248</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G6" s="3">
         <v>90.44</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H6" s="3">
         <v>9.4589999999999996</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I6" s="3">
         <v>4.0220000000000002</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J6" s="3">
         <v>1.103</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K6" s="3">
         <v>7.6769999999999996</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L6" s="3">
         <v>3.16</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M6" s="3">
         <v>2.0139999999999998</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N6" s="3">
         <v>7.1420000000000003</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O6" s="3">
         <v>19983</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>15.49</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="3">
         <v>781.7</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G10" s="3">
         <v>146.80000000000001</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H10" s="3">
         <v>13.17</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I10" s="3">
         <v>5.7149999999999999</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J10" s="3">
         <v>0.60129999999999995</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K10" s="3">
         <v>11.71</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L10" s="3">
         <v>2.734</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M10" s="3">
         <v>1.595</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N10" s="3">
         <v>10.57</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O10" s="3">
         <v>69813</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="3">
         <v>131.5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H11" s="3">
         <v>10.984</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I11" s="3">
         <v>4</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J11" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K11" s="3">
         <v>9</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L11" s="3">
         <v>2</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M11" s="3">
         <v>1</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N11" s="3">
         <v>9</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O11" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>26.94</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="3">
         <v>1416</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="3">
         <v>96.33</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H12" s="3">
         <v>9.3849999999999998</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I12" s="3">
         <v>4.0739999999999998</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J12" s="3">
         <v>0.9587</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K12" s="3">
         <v>8.1620000000000008</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L12" s="3">
         <v>2.9279999999999999</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M12" s="3">
         <v>2.093</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N12" s="3">
         <v>7.6740000000000004</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O12" s="3">
         <v>134529</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="B9:O9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
